--- a/biology/Botanique/Hymenophyllum_tortuosum/Hymenophyllum_tortuosum.xlsx
+++ b/biology/Botanique/Hymenophyllum_tortuosum/Hymenophyllum_tortuosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum tortuosum est une espèce de fougères de la famille des Hyménophyllacées.
 Synonymes : Hymenophyllum skottsbergii Gand., Leptocionium tortuosum (Hook. &amp; Grev.) Bosch, Meringium tortuosum (Hook. et Grev.) Copel., Myrmecostylum tortuosum (Hook. &amp; Grev.) C.Presl.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum tortuosum appartient au sous-genre Myrmecostylum.
 Cette espèce a les caractéristiques suivantes :
@@ -552,7 +566,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère, plutôt épiphyte, est présente en Amérique du Sud : Argentine et Chili.
 </t>
